--- a/data/NDCdata_As12Jun2024_Upd29Jul2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd29Jul2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DFC913-BCC1-4B05-AB05-D218946A2B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A0A7E-DE52-48E4-BE28-11980B81B1E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kushal Tibrewal</author>
+  </authors>
+  <commentList>
+    <comment ref="K86" authorId="0" shapeId="0" xr:uid="{881FAF11-9CCA-4E2A-B9EF-A75F276319C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kushal Tibrewal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+it is co2, just for code checking written co2eq</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="333">
   <si>
     <t>Notes</t>
   </si>
@@ -1037,6 +1071,12 @@
   </si>
   <si>
     <t>In the target, "emissions" from LULUCF are included but "sinks" are not. To avoid confusion and since the emissions part of LULUCF are small - the reduction target are applied to without LULUCF.</t>
+  </si>
+  <si>
+    <t>Supp_Target_GDP_LB</t>
+  </si>
+  <si>
+    <t>Supp_Target_GDP_UB</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1089,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_-;\-* #,##0.00\ _F_-;_-* &quot;-&quot;??\ _F_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,8 +1492,21 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1792,6 +1845,12 @@
     </fill>
     <fill>
       <patternFill patternType="darkTrellis"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="53">
@@ -6963,7 +7022,7 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7075,6 +7134,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2494">
@@ -9877,14 +9939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DA975E-BDEC-4C1E-83C8-A4ABE97F34FE}">
-  <dimension ref="A1:AD183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DA975E-BDEC-4C1E-83C8-A4ABE97F34FE}">
+  <dimension ref="A1:AD185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Z172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AD118" sqref="AD118"/>
+      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10751,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>119</v>
@@ -14379,8 +14441,8 @@
         <v>119</v>
       </c>
       <c r="J86" s="5"/>
-      <c r="K86" s="5" t="s">
-        <v>1</v>
+      <c r="K86" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>119</v>
@@ -17029,119 +17091,199 @@
       <c r="B155" s="14" t="s">
         <v>275</v>
       </c>
+      <c r="K155" s="35">
+        <f>K157+K159</f>
+        <v>7869.6639716190011</v>
+      </c>
+      <c r="L155" s="35">
+        <f>L157+L159</f>
+        <v>1651.8056476571428</v>
+      </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="14" t="s">
         <v>283</v>
       </c>
+      <c r="K156" s="35">
+        <f>K158+K160</f>
+        <v>7869.6639716190011</v>
+      </c>
+      <c r="L156" s="35">
+        <f>L158+L160</f>
+        <v>1651.8056476571428</v>
+      </c>
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="14" t="s">
         <v>276</v>
       </c>
+      <c r="K157" s="35">
+        <v>8672.6648658815193</v>
+      </c>
+      <c r="L157" s="35">
+        <v>1841.9485047999999</v>
+      </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="14" t="s">
         <v>284</v>
       </c>
+      <c r="K158" s="35">
+        <v>8672.6648658815193</v>
+      </c>
+      <c r="L158" s="35">
+        <v>1841.9485047999999</v>
+      </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="14" t="s">
         <v>277</v>
       </c>
+      <c r="K159" s="35">
+        <v>-803.00089426251793</v>
+      </c>
+      <c r="L159" s="35">
+        <v>-190.14285714285708</v>
+      </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K160" s="35">
+        <v>-803.00089426251793</v>
+      </c>
+      <c r="L160" s="35">
+        <v>-190.14285714285708</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B161" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B162" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B163" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B164" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B166" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="14" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K167" s="35">
+        <f>K169+K171</f>
+        <v>6045.9283552374818</v>
+      </c>
+      <c r="L167" s="35">
+        <f>L169+L171</f>
+        <v>1018.4026428571428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="14" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K168" s="35">
+        <f>K170+K172</f>
+        <v>6045.9283552374818</v>
+      </c>
+      <c r="L168" s="35">
+        <f>L170+L172</f>
+        <v>1018.4026428571428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="14" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K169" s="35">
+        <v>6848.9292495</v>
+      </c>
+      <c r="L169" s="35">
+        <v>1208.5454999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K170" s="35">
+        <v>6848.9292495</v>
+      </c>
+      <c r="L170" s="35">
+        <v>1208.5454999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K171" s="35">
+        <v>-803.00089426251793</v>
+      </c>
+      <c r="L171" s="35">
+        <v>-190.14285714285708</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="K172" s="35">
+        <v>-803.00089426251793</v>
+      </c>
+      <c r="L172" s="35">
+        <v>-190.14285714285708</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B173" s="14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B174" s="14" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B176" s="14" t="s">
         <v>288</v>
       </c>
@@ -17161,12 +17303,24 @@
       <c r="B179" s="14" t="s">
         <v>278</v>
       </c>
+      <c r="K179" s="35">
+        <v>5364.2508945694981</v>
+      </c>
+      <c r="L179" s="35">
+        <v>2517.281595449721</v>
+      </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="14" t="s">
         <v>286</v>
       </c>
+      <c r="K180" s="35">
+        <v>5364.2508945694981</v>
+      </c>
+      <c r="L180" s="35">
+        <v>2517.281595449721</v>
+      </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B181" s="14" t="s">
@@ -17178,69 +17332,92 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:28" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
-      <c r="A183" s="33"/>
-      <c r="B183" s="15" t="s">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B183" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="K183" s="35">
+        <v>33582.334999999999</v>
+      </c>
+      <c r="L183" s="35">
+        <v>12207.681</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B184" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="K184" s="35">
+        <v>33582.334999999999</v>
+      </c>
+      <c r="L184" s="35">
+        <v>12207.681</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" s="24" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A185" s="33"/>
+      <c r="B185" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C185" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D183" s="24" t="s">
+      <c r="D185" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="F183" s="24" t="s">
+      <c r="F185" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="H183" s="24" t="s">
+      <c r="H185" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="I183" s="24" t="s">
+      <c r="I185" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="K183" s="24" t="s">
+      <c r="K185" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="L183" s="24" t="s">
+      <c r="L185" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="O183" s="24" t="s">
+      <c r="O185" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="P183" s="24" t="s">
+      <c r="P185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="Q183" s="24" t="s">
+      <c r="Q185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="R183" s="24" t="s">
+      <c r="R185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="S183" s="24" t="s">
+      <c r="S185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="T183" s="24" t="s">
+      <c r="T185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="U183" s="24" t="s">
+      <c r="U185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="V183" s="24" t="s">
+      <c r="V185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="Y183" s="24" t="s">
+      <c r="Y185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="AA183" s="24" t="s">
+      <c r="AA185" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="AB183" s="24" t="s">
+      <c r="AB185" s="24" t="s">
         <v>323</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/NDCdata_As12Jun2024_Upd29Jul2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd29Jul2024_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710A0A7E-DE52-48E4-BE28-11980B81B1E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B60E74-4602-40B1-BC50-B93FBD10DAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9943,10 +9943,10 @@
   <dimension ref="A1:AD185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
+      <selection pane="bottomRight" activeCell="L48" sqref="L48:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12987,7 +12987,9 @@
       <c r="K48" s="1">
         <v>65</v>
       </c>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1">
+        <v>45</v>
+      </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -13022,7 +13024,9 @@
       <c r="K49" s="1">
         <v>65</v>
       </c>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <v>45</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
